--- a/production_recipe_management_tool_v1.1/data/Sample_Form.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Sample_Form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Desktop\production_recipe_management_tool_v1.1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D56CC7-7611-46ED-8F14-1678180657B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974E726D-2BB9-4422-BB38-080081D7EDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Quantity (Pieces)</t>
   </si>
@@ -32,27 +32,6 @@
   </si>
   <si>
     <t>Quantity (Gm)</t>
-  </si>
-  <si>
-    <t>Aluminum Foil</t>
-  </si>
-  <si>
-    <t>ABC1</t>
-  </si>
-  <si>
-    <t>ABC2</t>
-  </si>
-  <si>
-    <t>ABC3</t>
-  </si>
-  <si>
-    <t>ABC4</t>
-  </si>
-  <si>
-    <t>ABC5</t>
-  </si>
-  <si>
-    <t>ABC6</t>
   </si>
 </sst>
 </file>
@@ -415,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,41 +421,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/production_recipe_management_tool_v1.1/data/Sample_Form.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Sample_Form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db716023529416d8/Documents/GitHub/production_recipe_management_tool/production_recipe_management_tool_v1.1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974E726D-2BB9-4422-BB38-080081D7EDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{974E726D-2BB9-4422-BB38-080081D7EDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E68BB5-9396-405F-BFFB-B223D5E08255}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,12 +397,13 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
